--- a/interview/interview.xlsx
+++ b/interview/interview.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16230" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16230" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>请求的方法有哪些？</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +286,30 @@
   </si>
   <si>
     <t>内存模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdfs文件存储策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yarn的调度原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hive impala区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impala的并发机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP/UDP包头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP三次握手四次挥手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,6 +376,148 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="\\"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2057400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="\\"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2400300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="AutoShape 3" descr="\\"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2400300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="QQ图片20160322095538.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="57150"/>
+          <a:ext cx="7010400" cy="3133725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -651,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -851,26 +1018,6 @@
         <v>51</v>
       </c>
       <c r="B27" s="2"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -887,7 +1034,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -959,19 +1106,95 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>